--- a/MTH9821/hw2_9821_fall2023_mc2_ycsun.xlsx
+++ b/MTH9821/hw2_9821_fall2023_mc2_ycsun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yicheng.sun/Desktop/course_23fall/MTH9821/MTH9821/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF52829-BFB9-4740-83AB-DCC730C98E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2F3E17-3B23-D140-96E2-59B155472475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6980" yWindow="2220" windowWidth="20740" windowHeight="15460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,10 +208,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -715,18 +715,18 @@
       <c r="C16" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="28.25" customHeight="1">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" ht="14">
       <c r="A20" s="4" t="s">
@@ -878,7 +878,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -1002,7 +1002,7 @@
         <v>10000</v>
       </c>
       <c r="B5" s="9">
-        <v>6.6211165844590196</v>
+        <v>6.6211169999999999</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -1025,7 +1025,7 @@
         <v>20000</v>
       </c>
       <c r="B6" s="9">
-        <v>6.6861327839665403</v>
+        <v>6.6861329999999999</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1048,7 +1048,7 @@
         <v>40000</v>
       </c>
       <c r="B7" s="9">
-        <v>6.6145333660438004</v>
+        <v>6.6145329999999998</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -1071,7 +1071,7 @@
         <v>80000</v>
       </c>
       <c r="B8" s="9">
-        <v>6.6797720686954198</v>
+        <v>6.6797719999999998</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -1094,7 +1094,7 @@
         <v>160000</v>
       </c>
       <c r="B9" s="9">
-        <v>6.6615610082402501</v>
+        <v>6.6615609999999998</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1117,7 +1117,7 @@
         <v>320000</v>
       </c>
       <c r="B10" s="9">
-        <v>6.6479426139251796</v>
+        <v>6.6479429999999997</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1140,7 +1140,7 @@
         <v>640000</v>
       </c>
       <c r="B11" s="9">
-        <v>6.6514081499999804</v>
+        <v>6.651408</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -1163,7 +1163,7 @@
         <v>1280000</v>
       </c>
       <c r="B12" s="9">
-        <v>6.6582371211702602</v>
+        <v>6.6582369999999997</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1186,7 +1186,7 @@
         <v>2560000</v>
       </c>
       <c r="B13" s="9">
-        <v>6.6551360610622403</v>
+        <v>6.6551359999999997</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -1228,7 +1228,7 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
     </row>
